--- a/Minh/Kết quả.xlsx
+++ b/Minh/Kết quả.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\Apps\Coding\github\CapsoneProject\Minh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72F3483B-6212-4B59-B782-242CC53270EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEDB7585-9852-4B76-83D9-977CBE4E479C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{71AEF081-BF12-4548-9CDD-6C9C30BA7B8B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="58">
   <si>
     <t>Vehicle mass (kg)</t>
   </si>
@@ -208,6 +208,9 @@
   </si>
   <si>
     <t>Steering Resistance Torque at 600 degrees steering wheel angle</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -8083,7 +8086,7 @@
                   <c:v>91.89</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>97.29</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>102.7</c:v>
@@ -9738,6 +9741,59 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:prstDash val="solid"/>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Minhhh!$B$147:$B$156</c:f>
@@ -9824,8 +9880,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -9885,6 +9942,59 @@
                     <a:effectLst/>
                   </c:spPr>
                 </c:marker>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="t"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:prstDash val="solid"/>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
                 <c:cat>
                   <c:numRef>
                     <c:extLst>
@@ -11417,6 +11527,59 @@
             </a:effectLst>
             <a:sp3d/>
           </c:spPr>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Minhhh!$B$189:$B$198</c:f>
@@ -11517,7 +11680,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2">
+              <a:schemeClr val="accent3">
                 <a:alpha val="85000"/>
               </a:schemeClr>
             </a:solidFill>
@@ -11531,6 +11694,59 @@
             </a:effectLst>
             <a:sp3d/>
           </c:spPr>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Minhhh!$B$189:$B$198</c:f>
@@ -11631,7 +11847,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3">
+              <a:schemeClr val="accent5">
                 <a:alpha val="85000"/>
               </a:schemeClr>
             </a:solidFill>
@@ -11645,6 +11861,59 @@
             </a:effectLst>
             <a:sp3d/>
           </c:spPr>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Minhhh!$B$189:$B$198</c:f>
@@ -11731,7 +12000,7 @@
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -14095,13 +14364,10 @@
 </file>
 
 <file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
   <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
   <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
   <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -22445,8 +22711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{222F0461-A925-4DF5-8A62-96632C3B451D}">
   <dimension ref="A1:H315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C130" sqref="C130:C139"/>
+    <sheetView tabSelected="1" topLeftCell="C295" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C277" sqref="C277:C287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23395,8 +23661,8 @@
       <c r="B132">
         <v>1150</v>
       </c>
-      <c r="C132">
-        <v>97.29</v>
+      <c r="C132" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.35">

--- a/Minh/Kết quả.xlsx
+++ b/Minh/Kết quả.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\Apps\Coding\github\CapsoneProject\Minh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEDB7585-9852-4B76-83D9-977CBE4E479C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6BC831-FD6F-4486-8104-606369C97755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{71AEF081-BF12-4548-9CDD-6C9C30BA7B8B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="57">
   <si>
     <t>Vehicle mass (kg)</t>
   </si>
@@ -208,9 +208,6 @@
   </si>
   <si>
     <t>Steering Resistance Torque at 600 degrees steering wheel angle</t>
-  </si>
-  <si>
-    <t>.</t>
   </si>
 </sst>
 </file>
@@ -6201,7 +6198,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total resistance torque by FX</c:v>
+                  <c:v>Total resistance torque by FZ</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6527,7 +6524,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total resistance torque by FZ</c:v>
+                  <c:v>Total resistance torque by FX</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8086,7 +8083,7 @@
                   <c:v>91.89</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>97.29</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>102.7</c:v>
@@ -22711,8 +22708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{222F0461-A925-4DF5-8A62-96632C3B451D}">
   <dimension ref="A1:H315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C295" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C277" sqref="C277:C287"/>
+    <sheetView tabSelected="1" topLeftCell="C151" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D123" sqref="D123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22746,13 +22743,13 @@
         <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
         <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -23661,8 +23658,8 @@
       <c r="B132">
         <v>1150</v>
       </c>
-      <c r="C132" t="s">
-        <v>57</v>
+      <c r="C132">
+        <v>97.29</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.35">

--- a/Minh/Kết quả.xlsx
+++ b/Minh/Kết quả.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\Apps\Coding\github\CapsoneProject\Minh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEAE079B-B4C9-4B75-AA90-F07507D32025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10CC80E6-9EC2-4BC6-98A4-BDD289A1C626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{71AEF081-BF12-4548-9CDD-6C9C30BA7B8B}"/>
   </bookViews>
@@ -96,9 +96,6 @@
     <t>Vehicle Speed</t>
   </si>
   <si>
-    <t>Effect on the vehicle mass</t>
-  </si>
-  <si>
     <t>Fz = 4000N (Line chart 3D)</t>
   </si>
   <si>
@@ -129,9 +126,6 @@
     <t>Vehicle mass effect</t>
   </si>
   <si>
-    <t>Vehicle speed effect</t>
-  </si>
-  <si>
     <t>Vehicle velocity (km/h)</t>
   </si>
   <si>
@@ -154,9 +148,6 @@
   </si>
   <si>
     <t>Khối lượng xe, hành khách và hành lí = 1500 kg</t>
-  </si>
-  <si>
-    <t>Kingpin angle effect</t>
   </si>
   <si>
     <t>Caster angle effect</t>
@@ -211,6 +202,15 @@
   </si>
   <si>
     <t>Camber angle</t>
+  </si>
+  <si>
+    <t>Effect on the vehicle mass (done)</t>
+  </si>
+  <si>
+    <t>Vehicle speed effect (done)</t>
+  </si>
+  <si>
+    <t>Kingpin angle effect (done)</t>
   </si>
 </sst>
 </file>
@@ -1246,34 +1246,34 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" b="1"/>
+              <a:rPr lang="en-US" sz="1600" b="1"/>
               <a:t>Vehicle mass and speed</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:rPr lang="en-US" sz="1600" b="1" baseline="0"/>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" b="1"/>
+              <a:rPr lang="en-US" sz="1600" b="1"/>
               <a:t>effect</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:rPr lang="en-US" sz="1600" b="1" baseline="0"/>
               <a:t> on the total resistance torque at T  = 20N.m, </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="el-GR" b="1" baseline="0"/>
+              <a:rPr lang="el-GR" sz="1600" b="1" baseline="0"/>
               <a:t>τ = 5°, γ = 9° </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:rPr lang="en-US" sz="1600" b="1" baseline="0"/>
               <a:t>and </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="el-GR" b="1" baseline="0"/>
+              <a:rPr lang="el-GR" sz="1600" b="1" baseline="0"/>
               <a:t>ϵ = 0°</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" b="1"/>
+            <a:endParaRPr lang="en-US" sz="1600" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1313,10 +1313,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.9527629005414227E-2"/>
-          <c:y val="0.12346066363334095"/>
-          <c:w val="0.89664854510521541"/>
-          <c:h val="0.77985229955664293"/>
+          <c:x val="0.10504423478424282"/>
+          <c:y val="0.15187216906199041"/>
+          <c:w val="0.85412091595585216"/>
+          <c:h val="0.72871160343702479"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1337,9 +1337,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="50800" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1423,19 +1423,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1447,19 +1447,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>69</c:v>
+                  <c:v>30.51</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>61.97</c:v>
+                  <c:v>29.78</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60.72</c:v>
+                  <c:v>28.79</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>58.61</c:v>
+                  <c:v>27.61</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55.78</c:v>
+                  <c:v>26.46</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1486,7 +1486,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="47625" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -1572,19 +1572,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1596,19 +1596,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>82.1</c:v>
+                  <c:v>36.049999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>73.37</c:v>
+                  <c:v>35.32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>72.12</c:v>
+                  <c:v>34.33</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70</c:v>
+                  <c:v>33.15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>67.14</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1635,9 +1635,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="44450" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1721,19 +1721,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1745,19 +1745,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>92.3</c:v>
+                  <c:v>41.59</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>84.77</c:v>
+                  <c:v>40.86</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>83.52</c:v>
+                  <c:v>39.869999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>81.39</c:v>
+                  <c:v>38.69</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>78.52</c:v>
+                  <c:v>37.54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1797,7 +1797,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1810,17 +1810,25 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" b="1"/>
+                  <a:rPr lang="en-US" sz="1600" b="1"/>
                   <a:t>Vehicle</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" b="1" baseline="0"/>
+                  <a:rPr lang="en-US" sz="1600" b="1" baseline="0"/>
                   <a:t> speed (km/h)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" b="1"/>
+                <a:endParaRPr lang="en-US" sz="1600" b="1"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.36004203741067015"/>
+              <c:y val="0.92882641253557874"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1834,7 +1842,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1872,7 +1880,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1922,7 +1930,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1935,17 +1943,25 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" b="1"/>
+                  <a:rPr lang="en-US" sz="1600" b="1"/>
                   <a:t>Total resistance</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" b="1" baseline="0"/>
+                  <a:rPr lang="en-US" sz="1600" b="1" baseline="0"/>
                   <a:t> torque (N.m)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" b="1"/>
+                <a:endParaRPr lang="en-US" sz="1600" b="1"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.5991200325862265E-2"/>
+              <c:y val="0.19142828827285016"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1959,7 +1975,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1991,7 +2007,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2381,13 +2397,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>55.78</c:v>
+                  <c:v>26.45</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56.97</c:v>
+                  <c:v>32.869999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>57.16</c:v>
+                  <c:v>39.270000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2985,13 +3001,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>35.53</c:v>
+                  <c:v>18.07</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.799999999999997</c:v>
+                  <c:v>16.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33.869999999999997</c:v>
+                  <c:v>14.54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3168,13 +3184,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>12.97</c:v>
+                  <c:v>4.0279999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.895</c:v>
+                  <c:v>12.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.565</c:v>
+                  <c:v>20.37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3351,13 +3367,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>7.2750000000000004</c:v>
+                  <c:v>4.3520000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.2750000000000004</c:v>
+                  <c:v>4.37</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.2750000000000004</c:v>
+                  <c:v>4.3600000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4710,7 +4726,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1">
+              <a:schemeClr val="accent2">
                 <a:alpha val="85000"/>
               </a:schemeClr>
             </a:solidFill>
@@ -4843,19 +4859,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>7.2770000000000001</c:v>
+                  <c:v>4.3570000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.9379999999999997</c:v>
+                  <c:v>4.7530000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.6</c:v>
+                  <c:v>5.149</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.2609999999999992</c:v>
+                  <c:v>5.5449999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.9220000000000006</c:v>
+                  <c:v>5.9409999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4882,7 +4898,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2">
+              <a:schemeClr val="accent4">
                 <a:alpha val="85000"/>
               </a:schemeClr>
             </a:solidFill>
@@ -5015,19 +5031,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>12.98</c:v>
+                  <c:v>4.032</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.03</c:v>
+                  <c:v>4.8680000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.079999999999998</c:v>
+                  <c:v>5.6989999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.13</c:v>
+                  <c:v>6.5309999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.19</c:v>
+                  <c:v>7.3620000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5054,7 +5070,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3">
+              <a:schemeClr val="accent6">
                 <a:alpha val="85000"/>
               </a:schemeClr>
             </a:solidFill>
@@ -5187,19 +5203,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>35.53</c:v>
+                  <c:v>18.07</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38.5</c:v>
+                  <c:v>19.61</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41.47</c:v>
+                  <c:v>21.15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44.44</c:v>
+                  <c:v>22.69</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47.41</c:v>
+                  <c:v>24.23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5614,7 +5630,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> the total resistance torque at constant steering torque T = 20N.m, speed v = 20km/h, </a:t>
+              <a:t> the total resistance torque at constant steering torque T = 20N.m, speed v = 30km/h, </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="el-GR" b="1" baseline="0"/>
@@ -5704,7 +5720,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="63500" cap="rnd" cmpd="sng">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -5828,19 +5844,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>55.79</c:v>
+                  <c:v>26.45</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>61.47</c:v>
+                  <c:v>29.23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>67.150000000000006</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>72.84</c:v>
+                  <c:v>34.770000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>78.53</c:v>
+                  <c:v>37.54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6315,7 +6331,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+            <a:ln w="53975" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:srgbClr val="92D050"/>
               </a:solidFill>
@@ -6404,19 +6420,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6435,19 +6451,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>69</c:v>
+                  <c:v>30.51</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>61.97</c:v>
+                  <c:v>29.78</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60.72</c:v>
+                  <c:v>28.79</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>58.61</c:v>
+                  <c:v>27.61</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55.78</c:v>
+                  <c:v>26.46</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6591,19 +6607,19 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="5"/>
                       <c:pt idx="0">
-                        <c:v>0</c:v>
+                        <c:v>10</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>5</c:v>
+                        <c:v>15</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>10</c:v>
+                        <c:v>20</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>15</c:v>
+                        <c:v>25</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>20</c:v>
+                        <c:v>30</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6624,19 +6640,19 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="5"/>
                       <c:pt idx="0">
-                        <c:v>69</c:v>
+                        <c:v>30.51</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>61.97</c:v>
+                        <c:v>29.78</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>60.72</c:v>
+                        <c:v>28.79</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>58.61</c:v>
+                        <c:v>27.61</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>55.78</c:v>
+                        <c:v>26.46</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6981,7 +6997,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="dk1">
                     <a:lumMod val="75000"/>
@@ -6994,7 +7010,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="2400"/>
               <a:t>The resistance torque contribution on vehicle velocity effect</a:t>
             </a:r>
           </a:p>
@@ -7013,7 +7029,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1">
                   <a:lumMod val="75000"/>
@@ -7031,7 +7047,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.8492771333427636E-2"/>
+          <c:y val="0.17439412803136728"/>
+          <c:w val="0.8981680207423367"/>
+          <c:h val="0.67095480114616124"/>
+        </c:manualLayout>
+      </c:layout>
       <c:areaChart>
         <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
@@ -7051,7 +7077,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1">
+              <a:schemeClr val="accent2">
                 <a:alpha val="85000"/>
               </a:schemeClr>
             </a:solidFill>
@@ -7077,7 +7103,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="dk1">
                         <a:lumMod val="65000"/>
@@ -7132,19 +7158,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7163,19 +7189,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>31</c:v>
+                  <c:v>16.95</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33.200000000000003</c:v>
+                  <c:v>17.149999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33.69</c:v>
+                  <c:v>17.420000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.47</c:v>
+                  <c:v>17.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.53</c:v>
+                  <c:v>18.07</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7202,7 +7228,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2">
+              <a:schemeClr val="accent4">
                 <a:alpha val="85000"/>
               </a:schemeClr>
             </a:solidFill>
@@ -7228,7 +7254,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="dk1">
                         <a:lumMod val="65000"/>
@@ -7283,19 +7309,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7314,19 +7340,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>30.725000000000001</c:v>
+                  <c:v>9.2050000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.49</c:v>
+                  <c:v>8.2720000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.760000000000002</c:v>
+                  <c:v>7.0129999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.86</c:v>
+                  <c:v>5.5090000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.97</c:v>
+                  <c:v>4.0359999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7353,7 +7379,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3">
+              <a:schemeClr val="accent6">
                 <a:alpha val="85000"/>
               </a:schemeClr>
             </a:solidFill>
@@ -7379,7 +7405,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="dk1">
                         <a:lumMod val="65000"/>
@@ -7434,19 +7460,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7465,19 +7491,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>7.2750000000000004</c:v>
+                  <c:v>4.3550000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.2750000000000004</c:v>
+                  <c:v>4.3579999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.2750000000000004</c:v>
+                  <c:v>4.3570000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.2750000000000004</c:v>
+                  <c:v>4.351</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.2750000000000004</c:v>
+                  <c:v>4.3540000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7513,7 +7539,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="dk1">
                         <a:lumMod val="75000"/>
@@ -7526,12 +7552,20 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:rPr lang="en-US" sz="1800"/>
                   <a:t>Vehicle  speed (km/h)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.35436288741331151"/>
+              <c:y val="0.90599996226034818"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7545,7 +7579,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="dk1">
                       <a:lumMod val="75000"/>
@@ -7583,7 +7617,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="dk1">
                     <a:lumMod val="75000"/>
@@ -7645,7 +7679,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="dk1">
                         <a:lumMod val="75000"/>
@@ -7658,7 +7692,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:rPr lang="en-US" sz="1800"/>
                   <a:t>Total resistance torque (N.m)</a:t>
                 </a:r>
               </a:p>
@@ -7668,8 +7702,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="7.5610599513305163E-3"/>
-              <c:y val="0.16924956487791704"/>
+              <c:x val="7.4475414203743209E-4"/>
+              <c:y val="0.16924949081581483"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -7685,7 +7719,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="dk1">
                       <a:lumMod val="75000"/>
@@ -7750,8 +7784,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.24858386991038361"/>
-          <c:y val="0.10564945616812013"/>
+          <c:x val="0.24313077552114004"/>
+          <c:y val="0.17448426156148214"/>
           <c:w val="0.67446673365299126"/>
           <c:h val="9.8985810952258405E-2"/>
         </c:manualLayout>
@@ -7821,7 +7855,7 @@
       </a:path>
       <a:tileRect/>
     </a:gradFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <a:ln w="34925" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="dk1">
           <a:lumMod val="25000"/>
@@ -8009,16 +8043,13 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:sysClr>
                 </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="el-GR" sz="1600" b="1"/>
@@ -8097,7 +8128,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="44450" cap="rnd">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -8110,7 +8141,7 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
@@ -8133,7 +8164,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -8222,34 +8253,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>22.22</c:v>
+                  <c:v>8.6959999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.45</c:v>
+                  <c:v>10.37</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.82</c:v>
+                  <c:v>12.12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32.31</c:v>
+                  <c:v>13.95</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.92</c:v>
+                  <c:v>15.85</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>39.65</c:v>
+                  <c:v>17.82</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43.51</c:v>
+                  <c:v>19.87</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>47.49</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>51.58</c:v>
+                  <c:v>24.19</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>55.79</c:v>
+                  <c:v>26.46</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8367,7 +8398,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -8417,7 +8448,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -8430,7 +8461,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1600" b="1">
+                  <a:rPr lang="en-US" sz="1800" b="1">
                     <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:rPr>
@@ -8460,7 +8491,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -8492,7 +8523,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -8648,7 +8679,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="dk1">
                     <a:lumMod val="75000"/>
@@ -8661,7 +8692,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="2000"/>
               <a:t>The total resistance torque contribution on Kingpin angle effects</a:t>
             </a:r>
           </a:p>
@@ -8680,7 +8711,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1">
                   <a:lumMod val="75000"/>
@@ -8728,9 +8759,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1">
+              <a:srgbClr val="0070C0">
                 <a:alpha val="85000"/>
-              </a:schemeClr>
+              </a:srgbClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -8754,7 +8785,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="dk1">
                         <a:lumMod val="65000"/>
@@ -8841,34 +8872,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>9.0809999999999995</c:v>
+                  <c:v>4.617</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.04</c:v>
+                  <c:v>6.1230000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>7.6269999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.96</c:v>
+                  <c:v>9.1289999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.9</c:v>
+                  <c:v>10.63</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.85</c:v>
+                  <c:v>12.12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26.78</c:v>
+                  <c:v>13.62</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29.71</c:v>
+                  <c:v>15.1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32.630000000000003</c:v>
+                  <c:v>16.59</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>35.53</c:v>
+                  <c:v>18.07</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8895,7 +8926,8 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3">
+              <a:schemeClr val="accent4">
+                <a:lumMod val="50000"/>
                 <a:alpha val="85000"/>
               </a:schemeClr>
             </a:solidFill>
@@ -8921,7 +8953,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="dk1">
                         <a:lumMod val="65000"/>
@@ -9008,34 +9040,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>13.14</c:v>
+                  <c:v>4.0789999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.14</c:v>
+                  <c:v>4.0830000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.13</c:v>
+                  <c:v>4.0830000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.12</c:v>
+                  <c:v>4.0843999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.11</c:v>
+                  <c:v>4.077</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.09</c:v>
+                  <c:v>4.0709999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.07</c:v>
+                  <c:v>4.056</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.04</c:v>
+                  <c:v>4.0620000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.01</c:v>
+                  <c:v>4.0410000000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.98</c:v>
+                  <c:v>4.0330000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9062,7 +9094,8 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5">
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
                 <a:alpha val="85000"/>
               </a:schemeClr>
             </a:solidFill>
@@ -9088,7 +9121,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="dk1">
                         <a:lumMod val="65000"/>
@@ -9178,31 +9211,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2752</c:v>
+                  <c:v>0.16400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.68540000000000001</c:v>
+                  <c:v>0.41</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.23</c:v>
+                  <c:v>0.73660000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.909</c:v>
+                  <c:v>1.143</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.7210000000000001</c:v>
+                  <c:v>1.629</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.665</c:v>
+                  <c:v>2.194</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.74</c:v>
+                  <c:v>2.8380000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.944</c:v>
+                  <c:v>3.5590000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.2770000000000001</c:v>
+                  <c:v>4.3570000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9238,7 +9271,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="dk1">
                         <a:lumMod val="75000"/>
@@ -9251,7 +9284,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:rPr lang="en-US" sz="1800"/>
                   <a:t>Kingpin angle (degrees)</a:t>
                 </a:r>
               </a:p>
@@ -9278,7 +9311,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="dk1">
                       <a:lumMod val="75000"/>
@@ -9316,7 +9349,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="dk1">
                     <a:lumMod val="75000"/>
@@ -9378,7 +9411,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="dk1">
                         <a:lumMod val="75000"/>
@@ -9391,7 +9424,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:rPr lang="en-US" sz="1800"/>
                   <a:t>Total resistance torque (N.m)</a:t>
                 </a:r>
               </a:p>
@@ -9401,8 +9434,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="5.0337070101108151E-3"/>
-              <c:y val="0.23652032930299557"/>
+              <c:x val="4.5539878727307785E-6"/>
+              <c:y val="0.2365204118743239"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -9418,7 +9451,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="dk1">
                       <a:lumMod val="75000"/>
@@ -9450,7 +9483,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="dk1">
                     <a:lumMod val="75000"/>
@@ -9483,9 +9516,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.526148423409273E-2"/>
-          <c:y val="0.16166921729381503"/>
-          <c:w val="0.67091516162460307"/>
+          <c:x val="6.0115510912394442E-2"/>
+          <c:y val="0.10061872649689675"/>
+          <c:w val="0.90477235159122793"/>
           <c:h val="8.0051593691321851E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -9507,7 +9540,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1">
                   <a:lumMod val="75000"/>
@@ -9604,7 +9637,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -9617,7 +9650,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -9630,7 +9663,7 @@
               <a:t>Caster angle effect on the total resistance torque at T  = 20N.m</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="el-GR" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:rPr lang="el-GR" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -9643,7 +9676,7 @@
               <a:t>, </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -9653,10 +9686,10 @@
                 <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:rPr>
-              <a:t>vehicle speed v = 20km/h,</a:t>
+              <a:t>vehicle speed v = 20km/h, Kingpin </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="el-GR" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:rPr lang="el-GR" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -9669,7 +9702,7 @@
               <a:t>γ = 9° </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -9679,10 +9712,16 @@
                 <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:rPr>
-              <a:t>and </a:t>
+              <a:t>and Camber </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="el-GR" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>𝜀</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
@@ -9692,9 +9731,9 @@
                 <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:rPr>
-              <a:t>ϵ = 0°</a:t>
+              <a:t> = 0°</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:endParaRPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
@@ -9728,7 +9767,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -9746,7 +9785,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.4740190137695288E-2"/>
+          <c:y val="0.14447499055674007"/>
+          <c:w val="0.88917240493000083"/>
+          <c:h val="0.71768279571175919"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -9765,28 +9814,16 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="44450" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
+                <a:srgbClr val="C00000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
             <c:spPr>
@@ -9797,7 +9834,9 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -9878,22 +9917,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>49.01</c:v>
+                  <c:v>24.45</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50.4</c:v>
+                  <c:v>24.87</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51.77</c:v>
+                  <c:v>25.28</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>53.12</c:v>
+                  <c:v>25.68</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>54.47</c:v>
+                  <c:v>26.07</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>55.79</c:v>
+                  <c:v>26.46</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9914,7 +9953,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="732463104"/>
         <c:axId val="732464544"/>
@@ -9956,8 +9994,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.34494658185834848"/>
-              <c:y val="0.87319542025526753"/>
+              <c:x val="0.34494655112294004"/>
+              <c:y val="0.90817717447012614"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -10471,22 +10509,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>35.67</c:v>
+                  <c:v>18.14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35.659999999999997</c:v>
+                  <c:v>18.13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35.65</c:v>
+                  <c:v>18.12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.619999999999997</c:v>
+                  <c:v>18.11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.58</c:v>
+                  <c:v>18.09</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35.53</c:v>
+                  <c:v>18.07</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10637,22 +10675,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6.0410000000000004</c:v>
+                  <c:v>1.9359999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.4359999999999999</c:v>
+                  <c:v>2.3620000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.8279999999999994</c:v>
+                  <c:v>2.782</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.220000000000001</c:v>
+                  <c:v>3.202</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.6</c:v>
+                  <c:v>3.62</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.98</c:v>
+                  <c:v>4.0359999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10776,22 +10814,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7.3049999999999997</c:v>
+                  <c:v>4.3739999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.3029999999999999</c:v>
+                  <c:v>4.3780000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.3</c:v>
+                  <c:v>4.3780000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.2949999999999999</c:v>
+                  <c:v>4.3680000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.2869999999999999</c:v>
+                  <c:v>4.3600000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.2770000000000001</c:v>
+                  <c:v>4.3540000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11379,12 +11417,9 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -11499,12 +11534,9 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -18600,15 +18632,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>3254457</xdr:colOff>
+      <xdr:colOff>3281671</xdr:colOff>
       <xdr:row>158</xdr:row>
-      <xdr:rowOff>47471</xdr:rowOff>
+      <xdr:rowOff>156328</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2410283</xdr:colOff>
-      <xdr:row>185</xdr:row>
-      <xdr:rowOff>130397</xdr:rowOff>
+      <xdr:colOff>2437497</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>57826</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18636,15 +18668,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>467177</xdr:colOff>
+      <xdr:colOff>444765</xdr:colOff>
       <xdr:row>227</xdr:row>
-      <xdr:rowOff>99786</xdr:rowOff>
+      <xdr:rowOff>92315</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>4572000</xdr:colOff>
+      <xdr:colOff>4549588</xdr:colOff>
       <xdr:row>259</xdr:row>
-      <xdr:rowOff>154214</xdr:rowOff>
+      <xdr:rowOff>146743</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18780,15 +18812,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>3189941</xdr:colOff>
+      <xdr:colOff>3183591</xdr:colOff>
       <xdr:row>157</xdr:row>
-      <xdr:rowOff>148664</xdr:rowOff>
+      <xdr:rowOff>167714</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1314822</xdr:colOff>
+      <xdr:colOff>1308472</xdr:colOff>
       <xdr:row>182</xdr:row>
-      <xdr:rowOff>14943</xdr:rowOff>
+      <xdr:rowOff>33993</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19228,8 +19260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{222F0461-A925-4DF5-8A62-96632C3B451D}">
   <dimension ref="A1:H367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C312" sqref="C312"/>
+    <sheetView tabSelected="1" topLeftCell="A313" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F224" sqref="F224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19249,7 +19281,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -19260,16 +19292,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -19280,16 +19312,16 @@
         <v>550</v>
       </c>
       <c r="C3">
-        <v>55.79</v>
+        <v>26.45</v>
       </c>
       <c r="D3">
-        <v>7.2770000000000001</v>
+        <v>4.3570000000000002</v>
       </c>
       <c r="E3">
-        <v>12.98</v>
+        <v>4.032</v>
       </c>
       <c r="F3" s="11">
-        <v>35.53</v>
+        <v>18.07</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -19302,16 +19334,16 @@
         <v>600</v>
       </c>
       <c r="C4">
-        <v>61.47</v>
+        <v>29.23</v>
       </c>
       <c r="D4">
-        <v>7.9379999999999997</v>
+        <v>4.7530000000000001</v>
       </c>
       <c r="E4">
-        <v>15.03</v>
+        <v>4.8680000000000003</v>
       </c>
       <c r="F4" s="11">
-        <v>38.5</v>
+        <v>19.61</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -19324,16 +19356,16 @@
         <v>650</v>
       </c>
       <c r="C5">
-        <v>67.150000000000006</v>
+        <v>32</v>
       </c>
       <c r="D5">
-        <v>8.6</v>
+        <v>5.149</v>
       </c>
       <c r="E5">
-        <v>17.079999999999998</v>
+        <v>5.6989999999999998</v>
       </c>
       <c r="F5" s="11">
-        <v>41.47</v>
+        <v>21.15</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -19346,16 +19378,16 @@
         <v>700</v>
       </c>
       <c r="C6">
-        <v>72.84</v>
+        <v>34.770000000000003</v>
       </c>
       <c r="D6">
-        <v>9.2609999999999992</v>
+        <v>5.5449999999999999</v>
       </c>
       <c r="E6">
-        <v>19.13</v>
+        <v>6.5309999999999997</v>
       </c>
       <c r="F6" s="11">
-        <v>44.44</v>
+        <v>22.69</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -19368,16 +19400,16 @@
         <v>750</v>
       </c>
       <c r="C7">
-        <v>78.53</v>
+        <v>37.54</v>
       </c>
       <c r="D7">
-        <v>9.9220000000000006</v>
+        <v>5.9409999999999998</v>
       </c>
       <c r="E7">
-        <v>21.19</v>
+        <v>7.3620000000000001</v>
       </c>
       <c r="F7" s="11">
-        <v>47.41</v>
+        <v>24.23</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -19576,7 +19608,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
@@ -19590,13 +19622,13 @@
         <v>18</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F47" s="2"/>
     </row>
@@ -19682,7 +19714,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" spans="8:8" x14ac:dyDescent="0.35">
@@ -19692,7 +19724,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C82" t="s">
         <v>7</v>
@@ -19706,7 +19738,7 @@
         <v>0</v>
       </c>
       <c r="C83" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D83" t="s">
         <v>11</v>
@@ -19836,7 +19868,7 @@
         <v>0</v>
       </c>
       <c r="C104" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D104" t="s">
         <v>11</v>
@@ -19961,7 +19993,7 @@
         <v>0</v>
       </c>
       <c r="C117" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D117" t="s">
         <v>11</v>
@@ -20086,7 +20118,7 @@
         <v>0</v>
       </c>
       <c r="C130" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D130" t="s">
         <v>11</v>
@@ -20205,7 +20237,7 @@
     </row>
     <row r="144" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A144" s="4" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.35">
@@ -20213,19 +20245,19 @@
         <v>1</v>
       </c>
       <c r="B146" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C146" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D146" t="s">
+        <v>24</v>
+      </c>
+      <c r="E146" t="s">
         <v>25</v>
       </c>
-      <c r="E146" t="s">
+      <c r="F146" t="s">
         <v>26</v>
-      </c>
-      <c r="F146" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.35">
@@ -20233,39 +20265,39 @@
         <v>0</v>
       </c>
       <c r="B147">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C147">
-        <v>69</v>
+        <v>30.51</v>
       </c>
       <c r="D147">
-        <v>31</v>
+        <v>16.95</v>
       </c>
       <c r="E147">
-        <v>30.725000000000001</v>
+        <v>9.2050000000000001</v>
       </c>
       <c r="F147">
-        <v>7.2750000000000004</v>
+        <v>4.3550000000000004</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B148">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C148">
-        <v>61.97</v>
+        <v>29.78</v>
       </c>
       <c r="D148">
-        <v>33.200000000000003</v>
+        <v>17.149999999999999</v>
       </c>
       <c r="E148">
-        <v>21.49</v>
+        <v>8.2720000000000002</v>
       </c>
       <c r="F148">
-        <v>7.2750000000000004</v>
+        <v>4.3579999999999997</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.35">
@@ -20273,19 +20305,19 @@
         <v>2</v>
       </c>
       <c r="B149">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C149">
-        <v>60.72</v>
+        <v>28.79</v>
       </c>
       <c r="D149">
-        <v>33.69</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="E149">
-        <v>19.760000000000002</v>
+        <v>7.0129999999999999</v>
       </c>
       <c r="F149">
-        <v>7.2750000000000004</v>
+        <v>4.3570000000000002</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.35">
@@ -20293,39 +20325,39 @@
         <v>3</v>
       </c>
       <c r="B150">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C150">
-        <v>58.61</v>
+        <v>27.61</v>
       </c>
       <c r="D150">
-        <v>34.47</v>
+        <v>17.75</v>
       </c>
       <c r="E150">
-        <v>16.86</v>
+        <v>5.5090000000000003</v>
       </c>
       <c r="F150">
-        <v>7.2750000000000004</v>
+        <v>4.351</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B151">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C151">
-        <v>55.78</v>
+        <v>26.46</v>
       </c>
       <c r="D151">
-        <v>35.53</v>
+        <v>18.07</v>
       </c>
       <c r="E151">
-        <v>12.97</v>
+        <v>4.0359999999999996</v>
       </c>
       <c r="F151">
-        <v>7.2750000000000004</v>
+        <v>4.3540000000000001</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.35">
@@ -20345,7 +20377,7 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.35">
@@ -20353,10 +20385,10 @@
         <v>1</v>
       </c>
       <c r="B188" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C188" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.35">
@@ -20364,18 +20396,18 @@
         <v>0</v>
       </c>
       <c r="B189">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C189">
-        <v>82.1</v>
+        <v>36.049999999999997</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B190">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C190">
-        <v>73.37</v>
+        <v>35.32</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.35">
@@ -20383,10 +20415,10 @@
         <v>2</v>
       </c>
       <c r="B191">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C191">
-        <v>72.12</v>
+        <v>34.33</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.35">
@@ -20394,21 +20426,21 @@
         <v>3</v>
       </c>
       <c r="B192">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C192">
-        <v>70</v>
+        <v>33.15</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B193">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C193">
-        <v>67.14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.35">
@@ -20431,10 +20463,10 @@
         <v>1</v>
       </c>
       <c r="B203" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C203" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.35">
@@ -20442,21 +20474,21 @@
         <v>0</v>
       </c>
       <c r="B204">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C204">
-        <v>92.3</v>
+        <v>41.59</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B205">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C205">
-        <v>84.77</v>
+        <v>40.86</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.35">
@@ -20464,10 +20496,10 @@
         <v>2</v>
       </c>
       <c r="B206">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C206">
-        <v>83.52</v>
+        <v>39.869999999999997</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.35">
@@ -20475,18 +20507,18 @@
         <v>3</v>
       </c>
       <c r="B207">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C207">
-        <v>81.39</v>
+        <v>38.69</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B208">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C208">
-        <v>78.52</v>
+        <v>37.54</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.35">
@@ -20506,27 +20538,27 @@
     </row>
     <row r="216" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A216" s="8" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B217" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C217" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D217" t="s">
+        <v>24</v>
+      </c>
+      <c r="E217" t="s">
         <v>25</v>
       </c>
-      <c r="E217" t="s">
+      <c r="F217" t="s">
         <v>26</v>
-      </c>
-      <c r="F217" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.35">
@@ -20534,13 +20566,13 @@
         <v>0</v>
       </c>
       <c r="C218">
-        <v>22.22</v>
+        <v>8.6959999999999997</v>
       </c>
       <c r="D218">
-        <v>9.0809999999999995</v>
+        <v>4.617</v>
       </c>
       <c r="E218">
-        <v>13.14</v>
+        <v>4.0789999999999997</v>
       </c>
       <c r="F218">
         <v>0</v>
@@ -20551,16 +20583,16 @@
         <v>1</v>
       </c>
       <c r="C219">
-        <v>25.45</v>
+        <v>10.37</v>
       </c>
       <c r="D219">
-        <v>12.04</v>
+        <v>6.1230000000000002</v>
       </c>
       <c r="E219">
-        <v>13.14</v>
+        <v>4.0830000000000002</v>
       </c>
       <c r="F219">
-        <v>0.2752</v>
+        <v>0.16400000000000001</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.35">
@@ -20568,16 +20600,16 @@
         <v>2</v>
       </c>
       <c r="C220">
-        <v>28.82</v>
+        <v>12.12</v>
       </c>
       <c r="D220">
-        <v>15</v>
+        <v>7.6269999999999998</v>
       </c>
       <c r="E220">
-        <v>13.13</v>
+        <v>4.0830000000000002</v>
       </c>
       <c r="F220">
-        <v>0.68540000000000001</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.35">
@@ -20585,16 +20617,16 @@
         <v>3</v>
       </c>
       <c r="C221">
-        <v>32.31</v>
+        <v>13.95</v>
       </c>
       <c r="D221">
-        <v>17.96</v>
+        <v>9.1289999999999996</v>
       </c>
       <c r="E221">
-        <v>13.12</v>
+        <v>4.0843999999999996</v>
       </c>
       <c r="F221">
-        <v>1.23</v>
+        <v>0.73660000000000003</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.35">
@@ -20602,16 +20634,16 @@
         <v>4</v>
       </c>
       <c r="C222">
-        <v>35.92</v>
+        <v>15.85</v>
       </c>
       <c r="D222">
-        <v>20.9</v>
+        <v>10.63</v>
       </c>
       <c r="E222">
-        <v>13.11</v>
+        <v>4.077</v>
       </c>
       <c r="F222">
-        <v>1.909</v>
+        <v>1.143</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.35">
@@ -20619,16 +20651,16 @@
         <v>5</v>
       </c>
       <c r="C223">
-        <v>39.65</v>
+        <v>17.82</v>
       </c>
       <c r="D223">
-        <v>23.85</v>
+        <v>12.12</v>
       </c>
       <c r="E223">
-        <v>13.09</v>
+        <v>4.0709999999999997</v>
       </c>
       <c r="F223">
-        <v>2.7210000000000001</v>
+        <v>1.629</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.35">
@@ -20636,16 +20668,16 @@
         <v>6</v>
       </c>
       <c r="C224">
-        <v>43.51</v>
+        <v>19.87</v>
       </c>
       <c r="D224">
-        <v>26.78</v>
+        <v>13.62</v>
       </c>
       <c r="E224">
-        <v>13.07</v>
+        <v>4.056</v>
       </c>
       <c r="F224">
-        <v>3.665</v>
+        <v>2.194</v>
       </c>
     </row>
     <row r="225" spans="2:6" x14ac:dyDescent="0.35">
@@ -20653,16 +20685,16 @@
         <v>7</v>
       </c>
       <c r="C225">
-        <v>47.49</v>
+        <v>22</v>
       </c>
       <c r="D225">
-        <v>29.71</v>
+        <v>15.1</v>
       </c>
       <c r="E225">
-        <v>13.04</v>
+        <v>4.0620000000000003</v>
       </c>
       <c r="F225">
-        <v>4.74</v>
+        <v>2.8380000000000001</v>
       </c>
     </row>
     <row r="226" spans="2:6" x14ac:dyDescent="0.35">
@@ -20670,16 +20702,16 @@
         <v>8</v>
       </c>
       <c r="C226">
-        <v>51.58</v>
+        <v>24.19</v>
       </c>
       <c r="D226">
-        <v>32.630000000000003</v>
+        <v>16.59</v>
       </c>
       <c r="E226">
-        <v>13.01</v>
+        <v>4.0410000000000004</v>
       </c>
       <c r="F226">
-        <v>5.944</v>
+        <v>3.5590000000000002</v>
       </c>
     </row>
     <row r="227" spans="2:6" x14ac:dyDescent="0.35">
@@ -20687,16 +20719,16 @@
         <v>9</v>
       </c>
       <c r="C227">
-        <v>55.79</v>
+        <v>26.46</v>
       </c>
       <c r="D227">
-        <v>35.53</v>
+        <v>18.07</v>
       </c>
       <c r="E227">
-        <v>12.98</v>
+        <v>4.0330000000000004</v>
       </c>
       <c r="F227">
-        <v>7.2770000000000001</v>
+        <v>4.3570000000000002</v>
       </c>
     </row>
     <row r="232" spans="2:6" x14ac:dyDescent="0.35">
@@ -20841,13 +20873,13 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B264" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C264" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.35">
@@ -20932,13 +20964,13 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B277" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C277" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.35">
@@ -21023,27 +21055,27 @@
     </row>
     <row r="290" spans="1:6" s="9" customFormat="1" ht="20" x14ac:dyDescent="0.4">
       <c r="A290" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B291" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C291" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D291" t="s">
+        <v>24</v>
+      </c>
+      <c r="E291" t="s">
         <v>25</v>
       </c>
-      <c r="E291" t="s">
+      <c r="F291" t="s">
         <v>26</v>
-      </c>
-      <c r="F291" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.35">
@@ -21051,16 +21083,16 @@
         <v>0</v>
       </c>
       <c r="C292">
-        <v>49.01</v>
+        <v>24.45</v>
       </c>
       <c r="D292">
-        <v>35.67</v>
+        <v>18.14</v>
       </c>
       <c r="E292">
-        <v>6.0410000000000004</v>
+        <v>1.9359999999999999</v>
       </c>
       <c r="F292">
-        <v>7.3049999999999997</v>
+        <v>4.3739999999999997</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.35">
@@ -21068,16 +21100,16 @@
         <v>1</v>
       </c>
       <c r="C293">
-        <v>50.4</v>
+        <v>24.87</v>
       </c>
       <c r="D293">
-        <v>35.659999999999997</v>
+        <v>18.13</v>
       </c>
       <c r="E293">
-        <v>7.4359999999999999</v>
+        <v>2.3620000000000001</v>
       </c>
       <c r="F293">
-        <v>7.3029999999999999</v>
+        <v>4.3780000000000001</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.35">
@@ -21085,16 +21117,16 @@
         <v>2</v>
       </c>
       <c r="C294">
-        <v>51.77</v>
+        <v>25.28</v>
       </c>
       <c r="D294">
-        <v>35.65</v>
+        <v>18.12</v>
       </c>
       <c r="E294">
-        <v>8.8279999999999994</v>
+        <v>2.782</v>
       </c>
       <c r="F294">
-        <v>7.3</v>
+        <v>4.3780000000000001</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.35">
@@ -21102,16 +21134,16 @@
         <v>3</v>
       </c>
       <c r="C295">
-        <v>53.12</v>
+        <v>25.68</v>
       </c>
       <c r="D295">
-        <v>35.619999999999997</v>
+        <v>18.11</v>
       </c>
       <c r="E295">
-        <v>10.220000000000001</v>
+        <v>3.202</v>
       </c>
       <c r="F295">
-        <v>7.2949999999999999</v>
+        <v>4.3680000000000003</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.35">
@@ -21119,16 +21151,16 @@
         <v>4</v>
       </c>
       <c r="C296">
-        <v>54.47</v>
+        <v>26.07</v>
       </c>
       <c r="D296">
-        <v>35.58</v>
+        <v>18.09</v>
       </c>
       <c r="E296">
-        <v>11.6</v>
+        <v>3.62</v>
       </c>
       <c r="F296">
-        <v>7.2869999999999999</v>
+        <v>4.3600000000000003</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.35">
@@ -21136,27 +21168,27 @@
         <v>5</v>
       </c>
       <c r="C297">
-        <v>55.79</v>
+        <v>26.46</v>
       </c>
       <c r="D297">
-        <v>35.53</v>
+        <v>18.07</v>
       </c>
       <c r="E297">
-        <v>12.98</v>
+        <v>4.0359999999999996</v>
       </c>
       <c r="F297">
-        <v>7.2770000000000001</v>
+        <v>4.3540000000000001</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B300" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C300" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.35">
@@ -21209,13 +21241,13 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B309" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C309" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.35">
@@ -21268,7 +21300,7 @@
     </row>
     <row r="361" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A361" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.35">
@@ -21276,19 +21308,19 @@
         <v>1</v>
       </c>
       <c r="B362" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C362" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D362" t="s">
+        <v>24</v>
+      </c>
+      <c r="E362" t="s">
         <v>25</v>
       </c>
-      <c r="E362" t="s">
+      <c r="F362" t="s">
         <v>26</v>
-      </c>
-      <c r="F362" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.35">
@@ -21299,36 +21331,36 @@
         <v>0</v>
       </c>
       <c r="C363">
-        <v>55.78</v>
+        <v>26.45</v>
       </c>
       <c r="D363">
-        <v>35.53</v>
+        <v>18.07</v>
       </c>
       <c r="E363">
-        <v>12.97</v>
+        <v>4.0279999999999996</v>
       </c>
       <c r="F363">
-        <v>7.2750000000000004</v>
+        <v>4.3520000000000003</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B364">
         <v>1</v>
       </c>
       <c r="C364">
-        <v>56.97</v>
+        <v>32.869999999999997</v>
       </c>
       <c r="D364">
-        <v>34.799999999999997</v>
+        <v>16.3</v>
       </c>
       <c r="E364">
-        <v>14.895</v>
+        <v>12.2</v>
       </c>
       <c r="F364">
-        <v>7.2750000000000004</v>
+        <v>4.37</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.35">
@@ -21339,21 +21371,21 @@
         <v>2</v>
       </c>
       <c r="C365">
-        <v>57.16</v>
+        <v>39.270000000000003</v>
       </c>
       <c r="D365">
-        <v>33.869999999999997</v>
+        <v>14.54</v>
       </c>
       <c r="E365">
-        <v>15.565</v>
+        <v>20.37</v>
       </c>
       <c r="F365">
-        <v>7.2750000000000004</v>
+        <v>4.3600000000000003</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Minh/Kết quả.xlsx
+++ b/Minh/Kết quả.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\Apps\Coding\github\CapsoneProject\Minh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10CC80E6-9EC2-4BC6-98A4-BDD289A1C626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2353EE16-0DB0-4708-A416-C0E852F7D5A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{71AEF081-BF12-4548-9CDD-6C9C30BA7B8B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="58">
   <si>
     <t>Vehicle mass (kg)</t>
   </si>
@@ -2189,7 +2189,7 @@
                 <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:rPr>
-              <a:t>vehicle speed v = 20km/h</a:t>
+              <a:t>vehicle speed v = 30km/h</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="el-GR" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
@@ -2274,7 +2274,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.1494614476442665E-2"/>
+          <c:y val="0.15599354193310375"/>
+          <c:w val="0.8927646431251447"/>
+          <c:h val="0.66839651631146291"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -2293,9 +2303,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="44450" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="7030A0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2329,7 +2339,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -2443,7 +2453,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2456,7 +2466,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400" b="1"/>
+                  <a:rPr lang="en-US" sz="1600" b="1"/>
                   <a:t>Camber angle (degrees) </a:t>
                 </a:r>
               </a:p>
@@ -2466,7 +2476,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.39364071252818494"/>
+              <c:x val="0.35341437084335264"/>
               <c:y val="0.89824846776610667"/>
             </c:manualLayout>
           </c:layout>
@@ -2483,7 +2493,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2571,7 +2581,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2584,7 +2594,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400" b="1"/>
+                  <a:rPr lang="en-US" sz="1600" b="1"/>
                   <a:t>Total resistance torque (N.m)</a:t>
                 </a:r>
               </a:p>
@@ -2594,8 +2604,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.4576636234590875E-2"/>
-              <c:y val="0.18752610784954338"/>
+              <c:x val="9.3297294423907422E-3"/>
+              <c:y val="0.17379431325084432"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2611,7 +2621,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2863,8 +2873,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-7.1745639854791409E-18"/>
-                  <c:y val="1.8085110278486288E-2"/>
+                  <c:x val="1.4088397483612531E-2"/>
+                  <c:y val="1.291793591320449E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -3046,8 +3056,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0"/>
-                  <c:y val="-1.5501523095845389E-2"/>
+                  <c:x val="1.095764248725419E-2"/>
+                  <c:y val="2.5835871826408981E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -3229,8 +3239,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.565377498179163E-3"/>
-                  <c:y val="-1.291793591320449E-2"/>
+                  <c:x val="1.095764248725419E-2"/>
+                  <c:y val="-7.7507615479226466E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -5735,9 +5745,9 @@
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="47625">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -7975,7 +7985,7 @@
                 <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:rPr>
-              <a:t>vehicle speed v = 20km/h</a:t>
+              <a:t>vehicle speed v = 30km/h</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="el-GR" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
@@ -9637,7 +9647,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -9650,99 +9660,36 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:rPr>
+              <a:rPr lang="en-US"/>
               <a:t>Caster angle effect on the total resistance torque at T  = 20N.m</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="el-GR" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:rPr>
+              <a:rPr lang="el-GR"/>
               <a:t>, </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>vehicle speed v = 20km/h, Kingpin </a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>vehicle speed v = 30km/h, Kingpin </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="el-GR" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" cap="all" normalizeH="0" baseline="0">
+                <a:effectLst/>
               </a:rPr>
-              <a:t>γ = 9° </a:t>
+              <a:t>𝛾</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>and Camber </a:t>
+              <a:rPr lang="el-GR"/>
+              <a:t> = 9° </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>𝜀</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>and Camber 𝜀</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="el-GR" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:rPr>
+              <a:rPr lang="el-GR"/>
               <a:t> = 0°</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:endParaRPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -9767,7 +9714,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -9790,10 +9737,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.4740190137695288E-2"/>
-          <c:y val="0.14447499055674007"/>
-          <c:w val="0.88917240493000083"/>
-          <c:h val="0.71768279571175919"/>
+          <c:x val="8.8888220749550953E-2"/>
+          <c:y val="0.14677506696537723"/>
+          <c:w val="0.89502436635047544"/>
+          <c:h val="0.74528398934349482"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -9814,18 +9761,163 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="44450" cap="rnd">
+            <a:ln w="41275" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="C00000"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.0254358342019146E-2"/>
+                  <c:y val="-4.6001908898109477E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-40E2-4A4C-844D-C2F437C130D3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.7328368827659733E-2"/>
+                  <c:y val="-4.1401718008298539E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-40E2-4A4C-844D-C2F437C130D3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.8791363584839408E-2"/>
+                  <c:y val="-3.9101622563393071E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-40E2-4A4C-844D-C2F437C130D3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.0254358342019146E-2"/>
+                  <c:y val="-4.8302004343014904E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-40E2-4A4C-844D-C2F437C130D3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.8791363584839408E-2"/>
+                  <c:y val="-3.9101622563392988E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-40E2-4A4C-844D-C2F437C130D3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.0254358342019035E-2"/>
+                  <c:y val="-2.070085900414927E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-40E2-4A4C-844D-C2F437C130D3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -9834,17 +9926,15 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
@@ -9855,7 +9945,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="t"/>
+            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -9865,21 +9955,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
+                <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -9945,7 +10021,7 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -9953,6 +10029,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="732463104"/>
         <c:axId val="732464544"/>
@@ -9964,6 +10041,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -9971,7 +10062,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -9984,7 +10075,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1600" b="1"/>
+                  <a:rPr lang="en-US" sz="1400" b="1">
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
                   <a:t>Caster angle (degrees)</a:t>
                 </a:r>
               </a:p>
@@ -9994,8 +10088,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.34494655112294004"/>
-              <c:y val="0.90817717447012614"/>
+              <c:x val="0.34202052708360409"/>
+              <c:y val="0.94497863808994276"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -10011,7 +10105,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -10049,7 +10143,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -10078,20 +10172,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -10099,7 +10179,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -10112,7 +10192,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1600" b="1"/>
+                  <a:rPr lang="en-US" sz="1400" b="1"/>
                   <a:t>The total resistance torque (N.m)</a:t>
                 </a:r>
               </a:p>
@@ -10139,7 +10219,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -10161,8 +10241,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -10199,15 +10285,15 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.6554613334721073E-2"/>
-          <c:y val="0.62097797517385722"/>
-          <c:w val="0.91198320075029715"/>
-          <c:h val="8.7952661213595851E-2"/>
+          <c:x val="0.13620792219724764"/>
+          <c:y val="0.19909626171101746"/>
+          <c:w val="0.68071496375685181"/>
+          <c:h val="4.9948887160718394E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -10223,7 +10309,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -10252,11 +10338,14 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -10267,7 +10356,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1100" b="0">
+        <a:defRPr>
           <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
           <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
         </a:defRPr>
@@ -17414,7 +17503,7 @@
 </file>
 
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -17425,7 +17514,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -17448,18 +17537,18 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -17471,7 +17560,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -17479,11 +17568,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -17515,35 +17604,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -17555,30 +17654,34 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -17600,7 +17703,94 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
@@ -17611,21 +17801,183 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
@@ -17636,70 +17988,21 @@
         </a:solidFill>
       </a:ln>
     </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -17707,196 +18010,6 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -17904,14 +18017,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -18884,13 +18991,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>5057587</xdr:colOff>
+      <xdr:colOff>5035175</xdr:colOff>
       <xdr:row>369</xdr:row>
       <xdr:rowOff>22411</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>3003176</xdr:colOff>
+      <xdr:colOff>2980764</xdr:colOff>
       <xdr:row>395</xdr:row>
       <xdr:rowOff>82175</xdr:rowOff>
     </xdr:to>
@@ -19260,8 +19367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{222F0461-A925-4DF5-8A62-96632C3B451D}">
   <dimension ref="A1:H367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A313" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F224" sqref="F224"/>
+    <sheetView tabSelected="1" topLeftCell="C6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21223,7 +21330,7 @@
         <v>63.66</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B305">
         <v>4</v>
       </c>
@@ -21231,7 +21338,7 @@
         <v>65.42</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B306">
         <v>5</v>
       </c>
@@ -21239,7 +21346,7 @@
         <v>67.150000000000006</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>42</v>
       </c>
@@ -21250,7 +21357,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B310">
         <v>0</v>
       </c>
@@ -21258,15 +21365,18 @@
         <v>67.5</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B311">
         <v>1</v>
       </c>
       <c r="C311">
         <v>69.760000000000005</v>
       </c>
+      <c r="D311" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B312">
         <v>2</v>
       </c>
@@ -21274,7 +21384,7 @@
         <v>71.989999999999995</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B313">
         <v>3</v>
       </c>
@@ -21282,7 +21392,7 @@
         <v>74.19</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B314">
         <v>4</v>
       </c>
@@ -21290,7 +21400,7 @@
         <v>76.37</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B315">
         <v>5</v>
       </c>
